--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Samyak/Workspace/python-projects/python-giant-pandas/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189243E8-B1BA-7E47-B1EF-59BF129B7F24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B1DB52-0F17-A94C-9553-53B0B1BDD501}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Crawlers" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -460,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -828,4 +829,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4645F4E3-C7E9-E449-8772-F499BBE1AA54}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>